--- a/TEKLAKE2020/20121701RN/20121701RN.xlsx
+++ b/TEKLAKE2020/20121701RN/20121701RN.xlsx
@@ -2718,7 +2718,7 @@
         <v>112</v>
       </c>
       <c r="D37" s="13">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="E37" s="35">
         <v>0.33</v>
